--- a/500all/speech_level/speeches_CHRG-114hhrg97461.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97461.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order. And good afternoon to everyone.    We have come a long way since the September 14, 1999 hearing in this room that I chaired on human trafficking, one of a series that continues to this day. At that particular hearing, then Assistant Secretary of State for the Bureau of Democracy, Human Rights, and Labor Harold Koh called human trafficking a ``global plague'' and said that while the Clinton administration supported the objective of my bill to combat human trafficking, he testified that the ``existing legislative framework was sufficient and that new legislation should not focus on developing new institutions or establishing onerous new requirements.''    No TIP office, no TIP Report, no TIP sanctions, he said. Beefed up reporting in the annual country reports of human rights practices would suffice. Assistant Secretary Koh testified that the administration strongly objected to singling out and sanctioning nations with poor records and government complicity in trafficking, but did agree on the need for alien asylum protection and enhanced criminal penalties for traffickers that was also contained in my legislation.    That said, I pushed ahead in a bipartisan fashion and crafted a comprehensive piece of legislation, landmark legislation, known as the Trafficking Victims Protection Act of 2000 which just celebrated its 15th anniversary of when it was signed into law on October 28th.    The power of the Trafficking in Persons Report, a mainstay of the legislation, rests on its credibility. And the credibility of the report rests on its accuracy. We must get the report right--no fudging, no favors to nations based on other agendas--or we risk losing the most effective tool we have to help the more than 20 million victims of trafficking enslaved around the world.    Some countries, as you know, as the distinguished people at our witness table know, openly credit the TIP Report for their increased and effective anti-trafficking response. Over the last 14 years, now into the 15th, more than 100 countries have enacted anti-trafficking laws, and many countries have taken other steps required to significantly raise their tier rankings. Tier 1 is for those who fully meet minimum standards; Tier 2 is for those who are making significant efforts to meet minimum standards and; Tier 3 is for those who are not making significant efforts to meet minimum standards and, indeed, may be subject to sanctions.    And for those between Tier 2 and 3, Congress in 2003 created a Tier 2 Watch List for those who have undertaken significant anti-trafficking steps, often late in the evaluation year. And just for the record, I wrote that law too. Unfortunately, this ranking has been misused to allow countries to escape accountability, a loophole we thought we had closed with the Wilberforce Act. And that bill was sponsored by Howard Berman.    We are holding this hearing today to focus due to well-founded concern that some of the rankings in the most recent report are inaccurate and undermine the credibility of the report. Grade inflation for certain favored countries undermines accuracy and accountability and, I would respectfully submit, demoralizes countries that actually made significant progress last year.    The State Department heard from many House Members, 161 to be exact, when it was leaked that Malaysia was upgraded this year from Tier 3 to the Tier 2 Watch List. The report justified the upgrade because Malaysia introduced, but did not pass, an amendment to their trafficking law and allowed a limited number of their trafficking victims to work outside of detention while keeping the rest of the victims in detention.    These incomplete actions pale in comparison to the size of Malaysia's trafficking problem. Malaysia was the subject of an incisive Reuters investigative report in 2014. And without objection, I'd like to make that report a part of the record.    It found that human traffickers were keeping hundreds of Rohingya refugees from Burma captive in houses in northern Malaysia, beating them, depriving them of food, and demanding a ransom from their families.    At least 2 million vulnerable migrants work in the informal economy in Malaysia. NGOs on the ground tell us that the traffickers operate openly and with impunity, and that those who get in their way are killed. Only three traffickers were convicted in Malaysia last year, three in a country of more than 30 million people.    I note for the record and parenthetically, as we went through the minimum standards over the last decade-and-a-half, we were always trying to calibrate those minimum standards because some countries like to game the system. In the very first piece of legislation we talked about the prosecutions and arrests and then found lots of prosecutions, but very few convictions. Then we started looking at how long and whether or not that individual or individuals served any time in jail, incarcerated.    Again, in Malaysia only three traffickers were convicted last year.    If that ratio were not bad enough, it also marks the third year of decline for convictions in Malaysia. Three convictions is one-third the number of convictions in Malaysia that they had in 2013 when Malaysia was Tier 3, and one-seventh of the convictions they had in 2012.    Trafficking in Malaysia is getting worse and the government's enforcement of the law was nearly non-existent, and yet Malaysia was upgraded. So what happened? Was Malaysia's upgrade in any way related to that nation's eligibility to join the Trans-Pacific Partnership?    This spring, Congress approved the Trade Priorities Act of 2015, excluding Tier 3 countries from expedited consideration by the Congress, for the simple reason that Congress does not want to increase trade with countries that engage in persistent trafficking, including labor trafficking. Malaysia was disqualified until their upgrade.    More than bad optics, more than fighting the will of Congress, such circumventing of accountability is disastrous for labor trafficking victims and victims of all kinds in Malaysia. Instead of demanding change before Malaysia became a major trading partner, the administration weakened our standards to give Malaysia a pass. In other words, we looked the other way to empower a slave economy.    The administration also upgraded Cuba this year to the Tier 2 Watch List on very flimsy justifications, namely that Cuba began sharing information with the U.S. on trafficking and that it convicted 13 traffickers 2 years ago, which is outside of the reporting period. But what has changed in Cuba for trafficking victims in the last year? Cuba legally permits the pimping of 16-year-old girls, it is the top destination in the Western Hemisphere for child sex tourism, and does not criminalize labor trafficking at all.    And I want to say again parenthetically, I read the TIP Report for all these countries. The Cuba report is excellent but it doesn't comport with the ranking. You got it right on the report, not right on the ranking.    On the labor trafficking side, Cuba does not criminalize labor trafficking. Indeed, Cuban healthcare personnel, who are sent abroad by the Castro regime to generate income for the government, report being forced to work in medical missions, having their passports withheld, and their families threatened.    Again, as the author of the TVPA, I have to say unequivocally that the spirit and the letter of the law make clear that trafficking rankings should not be used in the hopes of bringing about better bilateral relations with countries such as Cuba. Rather, better relations with Cuba should be preconditioned on real protection for Cuba's exploited and abused children and women, and recognition of labor trafficking which, again, they don't recognize it.    The bar also seems to be lowered in the case of Uzbekistan which was upgraded to the Tier 2 Watch List despite the fact that Uzbekistan's Government openly and unapologetically forces its population into forced labor every year during the cotton harvest, something that Ambassador Lagon previously testified to at a hearing here, having similar parallels to slavery in this country harvesting cotton before emancipation took place in the United States.    In recent years the government has shifted away from pulling young children out of school and allowed the ILO to monitor conditions. But instead of children, they conscripted adults, continuing this systematic exploitation of its population.    China's premature upgrade to Tier 2 Watch List in 2014, and its continued presence there in the 2015 report, also raises very serious questions. How can a country that systematically trafficks its own people be anything but Tier 3?    After 1 year on the Tier 3 list in 2013, China passed a law to allegedly closed its 320 re-education through labor detention centers which forced prisoners and other detainees to perform manual labor and padded the pockets of the government. The State Department upgraded China because of that reform in 2014. But now we know from the report--and I again would add parenthetically, I chair the Congressional-Executive Commission on China and we just put out our comprehensive report on China. They just simply have changed how they do business, not the fact that the laogai system continues and is a terrible blight on the Government of China.    The report itself says the government only closed several of the 320 forced labor sites and converted other reform through labor facilities into state-sponsored drug detention or custody and education centers. Again, tjere was a great deal of hype about this; there is very little when it came to actually changing the system. In other words, China continues to force detained citizens to perform manual labor and yet it got the tier upgrade it was given for allegedly ending this practice.    I would note and remind my colleague that I have chaired 55 hearings on human rights in China, sitting right where you sit. Years ago it was six members, including a Tibetan Palden Gyatso, who talked about the so-called reform through labor camps. He held up a cattle prod and said, ``They put it here in our groin area, and that's how they get us when we are reluctant to perform the mission.'' Twelve to fourteen hours a day, or more, they are forced to be a part of work, so-called reform through labor.    That hasn't changed. It has morphed into a different but a very similar situation. And, again, that was the pretext for the upgrade.    Additionally, China's coercive of population control policy, in combination with the cultural preference for boys, has resulted in tens of millions of women and girls missing from the population, making China a regional magnet for sex and bride trafficking as men who reach marrying age, simply cannot find a wife. Just ask the Burmese, Cambodian, Vietnamese, Laotian, and North Korean women imported to meet Chinese demand.    And let me say and note here as well, I wrote an op-ed, it was in the Washington Times yesterday, Nicholas Eberstadt did an excellent one that was contained in The Wall Street Journal, and others have spoken out on the so-called relaxation of the one-child policy to a two-child policy has not changed one iota the coercive aspects of that population control program in China with forced abortion and forced sterilization as the mainstays and these terrible fees that they impose, draconian fines, as a means of implementation.    So the continuance of missing girls will continue in China, and that will lead to more sex trafficking.    We have had, at this subcommittee, a number of women who have been compelled to perform sex work, in other words sex trafficking, from other nations. An estimated 90 percent of North Korean women seeking asylum in China have been trafficked. We have had them sit here and tell their stories with very few lucky ones. And of course China breaks its word to the Refugee Convention, and rather than providing them some kind of durable remedy or protection, sends them right back to North Korea at the end of their exploitation, where then they are either executed or sent to that gulag system.    Consider this: China convicted 35 traffickers last year in a country of 1.3 billion people. Three five. Not 3,500, not 35,000, 35.    Thailand by contrast, a Tier 3 country of 67 million people, had 151 convictions in 2014. Nothing, and I say again, nothing in China's deplorable record in 2014 warrants anything but a Tier 3 ranking. Thailand by contrast is Tier 3. China, with such a small number, a piddling number of convictions and government complicity up and down the system, is no longer a Tier 3 country.    I wrote the TVPA to allow flexibility and discernment in rewarding a country for making progress over their record from the year before, and for significant, not modest or superficial changes, efforts that go to prosecution, prevention, and protection.    Having a 3-day conference or making something around the edges isn't what constitutes significant. Tier rankings are a tool to aid real change, not a rubber stamp for simply holding a meeting or being a major trading partner. The rankings in this 2015 report seem to be a real opportunity lost for several countries, not just for the countries we gave a pass to, but other countries where good faith efforts were made but were not sufficiently acknowledged.    No country will take U.S. trafficking rankings seriously when there seems to be a wink and a nod agreement to look the other way when it suits U.S. business or other interests. Tellingly, Reuters reports that there was a lot of infighting at the State Department between the trafficking experts at the TIP office, who I have the highest regard for, and the bureaus. This year the two sides split, according to Reuters, on 17 countries, and J/TIP lost almost all of those conflicts.    I look forward to our distinguished witnesses. But I would like to yield to my friend and colleague Ms. Bass for any opening comments.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you. Thank you, Mr. Chair. And, as usual, I want to thank you for your leadership on this issue and your creation of the TIP Report to begin with.    I want to say that I share your concerns over Malaysia and Malaysia's upgrading and say that there might be some of our colleagues that come and attend this session so that they can express their concerns over that.    I don't though, however, share your concerns about Cuba. And, in fact, I have been impressed with the way Cuba has responded to trafficking, especially sex trafficking. And I remember years ago when it was so obvious and open and flourishing. And what I saw took place is an absolute decline in this and the Cuban Government providing a lot of education.    What was happening in the early years was that girls and women from the countryside were coming to the city because there wasn't any employment. And so to discourage that they provided a lot of education. And they actually created a soap opera on television that was shown widely throughout the country to educate people in the countryside and ask them not to come to the city and get involved with this.    So I do think that improvements have been made there and that it is important for us to acknowledge it.    In regard to doctors that go over and go to different countries, I have spoken with many of them. And one of the things that I think that we are doing that I hope we stop, especially with the change in policy toward Cuba, is to try to seduce some of the Cuban doctors that are practicing around the world from returning to Cuba but actually to come to the United States.    And when you see doctors that are providing healthcare in developing countries, to me it is important that they continue to do that.    I also have to say that I often cringe when comparisons are made with other countries to slavery that took place in the United States, in particular because you are talking about my ancestors who actually don't even know who they were. And when I think about our Capitol, our Nation's Capitol which was built with slave labor, what we did is that we rented, the U.S. Government rented slaves from local plantations and they built the U.S. Capitol. And there is an acknowledgment of this in the Capitol Visitor Center.    And so I think sometimes when those comparisons are made it can minimize what actually took place in this country for over 200 years.    And then in terms of the Trafficking Report, I am always interested in trafficking that takes place in the United States, in particular with girls who are in the foster care system. And I am proud to say that in my County of Los Angeles the Sheriff's Department as well as social services got together. And our Sheriff's Department have now adopted a policy where they will not arrest girls who are caught up in trafficking, and that they will stop using the term ``John'' to refer to the child molesters, because that is actually who they are.    So while we hold the world accountable, and rightfully so, I think it is important that we continue to hold our own country accountable. And I appreciate that in the TIP Report it does have a section on the United States. But I want to continue to call for our own country, and as a matter of fact all 50 states, to adopt a policy where they will no longer arrest girls.    Thank you. With that I yield back my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank you for your eloquent remarks as you opened up this particular hearing.    To my right, to your left is the gentlewoman from Missouri, Ms. Wagner. And as the ranking member was talking about putting the emphasis on what we do here in the United States, it has not only been her calling but her passion to address that. And so I wanted to acknowledge not only her presence but her willingness to engage on this horrific crime against, for many practical purposes, young girls, but not just young girls, young boys as we well know, but not only here in the United States, but internationally. And so her presence here hopefully underscores the importance that all Members of Congress, whether they are on this committee or not, places on this particular topic.    I am troubled by the trend that I see. And I want to be very specific in terms of what I am looking for today from each one of you. I don't doubt the work that many of you do and the passion at which you do it. This is some of you have been called to this and you see it as a personal mission and not just a profession. And I thank you for that.    But I am troubled by what I see is a manipulation for political purposes of the TIP Report that basically has elevated to a level beyond many of you who are seated here at that particular desk. I am troubled by the reports, not only that the chairman has mentioned, but specifically how we seem to have all the way up to Secretary Kerry and those that are just shy of his position intervening with regards to decisions on who will be included and who will not be included.    So let me be very clear. Many times when we have the Secretary or an Under Secretary coming in to testify and things have not gone well, they say that they oversee a vast agency of hundreds if not thousands of different reporting supervisors and managers, and they couldn't individually weigh in on those when it comes to accountability. But yet as we started to do the analysis with who was included and who was excluded, it appears that it goes to the very highest levels within the State Department and then weighing in on who should be on the report and who should not.    That is troubling because once you get away from those who best understand it, the decisions are political. It is beyond my comprehension, and certainly I find it extremely interesting that Malaysia would have been removed from their status during a TPP negotiation process that is ongoing. And yet we somehow see this as being a pragmatic decision when very little on the ground appears to have changed.    Either the report and our efforts to correct these terrible crimes are meaningful or they become a political tool. And if they become a political tool, then indeed we need to do away with the agency and the very report itself because it is nothing more than sending the wrong message that we don't take this serious.    I am here today because I take this serious. I take it very serious. My daughter at 15 years of age brought this particular subject really up close and personal when she talked about what was happening in the United States and abroad. And if we are not going to stand up and be a voice, then who will?    And so I am being direct. I expect direct answers as we go into the question and answer period, and specifically with what kinds of intervention has taken place that could potentially be perceived as political.    And with that, Mr. Chairman, I would yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I thank the witnesses for being here today. And also thank you, Mr. Chairman, and Ranking Member Bass for calling this hearing and for being such leaders in the fight against human trafficking, and particularly both here in the United States and around the world.    And thank you, Mr. Chairman, for your legislation that created the TIP Report in your early years upon this issue.    The Trafficking In Persons Report which was authorized by Congress in 2000 is designed to be used as an important tool in our international diplomacy to incentivize countries to take important steps to combat human trafficking and sanction those who fall short. Since the report's inception, more than 120 countries have enacted anti-trafficking laws and many countries have taken other steps required to significantly raise their tier rankings, citing the report as a key factor in their increased anti-trafficking response.    And that is why it is my judgment that it is particularly alarming and really a shame that we are here today discussing what seems to be the obvious politicization of the report in the context of Malaysia.    I do not make that statement lightly. I think that the men and women of the State Department are dedicated public servants who fight every day to promote American values abroad. But it is nearly impossible, looking at the facts, to conclude anything other than the determination to move Malaysia from Tier 3 to Tier 2 Watch List status is without sufficient justification, and ill-advised at best.    Universally, advocates on the ground and in the anti-human trafficking community here in the United States have reported that Malaysia has made minimal progress and, in fact, has fallen in some key areas in their anti-trafficking campaign in the past year. Both The Washington Post and The New York Times editorial boards raised concerns about this year's report.    Moreover, the anti-trafficking amendments that were apparently taken into account to improve Malaysia's score have still not been adopted, more than 7 months after they were used in part to justify the change in ranking. With TPP eligibility for Malaysia hinging on this determination, it certainly comes off as a political one.    I hope to hear a thorough explanation today of how this determination was made and by whom, but I fear that the damage has already been done. Countries around the world, many of whom have made much more progress in their countries than the countries that we are going to be discussing today have seen the discussion around this year's report and decided that politics is more important than their actions. And that is a regrettable consequence.    So I hope to hear from our witnesses how the State Department intends to take action to restores credibility to this vitally important report and to restore our credibility around the world on the issue of anti-trafficking efforts.    And with that I yield back, Mr. Chairman. Thank you.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Chairman.    From what I have heard from my colleagues, if any of this is true this is alarming. So I am going to yield the rest of my time so we can hear from the witnesses.</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Wagner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wagner. Thank you very, very much, Mr. Chairman. And I thank our witnesses for being here today to testify, many of whom are good and loyal, upstanding members of the State Department, of which I had the pleasure of serving as a United States Ambassador for 4 years. I applaud your work in this area. I applaud the chairman's work, lifelong work in this area, along with Ranking Member Bass and the kind indulgence of the subcommittee in letting me come and speak on this very important issue.    And I thank you for convening this hearing to investigate the potential political interference in this year's Trafficking In Persons Report. I applaud the committee's efforts to increase awareness of human trafficking, especially Chairman Smith's ongoing leadership and dedication to combating this terrible crime that affects the most vulnerable members of our society, both here in the United States of America and around the globe.    On July 27th, the State Department published the 15th installment of the Trafficking In Persons Report. This independent annual publication ranks 188 countries on their efforts to combat human trafficking in accordance with standards outlined in the Trafficking Victims Protection Act. As a former United States Ambassador, I know well, very well, how the TIP Report serves as an important tool for pressuring countries to take meaningful action to address human rights violations.    Frankly, my very first introduction to the world of human trafficking, both sex trafficking and labor trafficking, girls, boys, men, women, all of the above, came when I served at the State Department as a U.S. Ambassador and was responsible for the TIP Report that came out of my mission.    And thus, when I came home from my tour of duty began to delve into this horrific crime against humanity and the most vulnerable, mostly young girls and women in the United States of America, and have worked hard with many on this committee and many throughout Congress in a bipartisan way to pass some of the most cutting edge legislation that we have seen in many, many years on human trafficking here domestically, and I am pleased that the President signed into law this past May.    But it is absolutely, the TIP Report is key, key to addressing human rights violations.    These recent media reports indicate that political appointees meddled in the compilation of this publication by challenging State Department human rights experts' ratings recommendations for 17 political strategic countries, and inflating the assessment of 14 of these. Over the objections, I am told, of the State Department's own experts, Malaysia and Cuba were among countries upgraded from the blacklist of worst offenders on human trafficking.    Malaysia's unsubstantiated upgrade is particularly alarming because of its overt importance to the Trans-Pacific Partnership. Congress has restricted TPP negotiations with countries that have the worst records in combating human trafficking. Malaysia was one of those countries. However, on the eve of the July TPP negotiating round, the State Department took Malaysia off its human rights blacklist by upgrading its status from a Tier 3 to the less incriminating Tier 2 Watch List rating.    If it is true that the administration politicized this report there are questions about why they chose to significantly, significantly diminish a tool that has been effective in fighting the scourge of human trafficking around the world. The United States cannot be a leader in the fight against human trafficking if we do not honestly assess the state of the problem for all countries, even our own, and most importantly including trading partners like Malaysia. The U.S. cannot allow political interest to outweigh the safety and the freedom of the thousands of trafficked men, women, and children. We have to hold governments accountable for their actions.    I welcome the continuing investigations into this year's TIP Report, and I would urge the administration to remain vigilant against any attempts to circumvent the veracity of future TIP reports and the protections they provide.    I thank again the chairman, the ranking member and other members of the subcommittee for their kind indulgence. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -127,36 +109,24 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming. I like you a lot. Yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you.    Let me now introduce our very distinguished panel beginning with Dr. Kari Johnstone who is the Principal Deputy Director of the Office to Monitor and Combat Trafficking in Persons. She began serving in this role in November 2014.    Previously she served in the Bureau of Democracy, Human Rights, and Labor in the Office of International Religious Freedom. She also served as the Director for Russia and Central Asia at the National Security Staff of the White House, as an election officer at the U.S. Embassy in Afghanistan, and the Human Rights Officer at the U.S. Embassy in Uzbekistan.    Then I would like to introduce Mr. James Carouso who is the Acting Deputy Assistant Secretary in the Bureau of East Asian and Pacific Affairs. He joined the Department of State in 1995 following a 14-year career in international banking and finance.    Most recently Mr. Carouso served as the Counselor for Economic Affairs at the U.S. Embassy in Indonesia. Prior to that he served with the State Department in a variety of economic and commercial roles in the Dominican Republic, South Africa, Australia, Thailand, and Cyprus.    And finally we'll hear from in this panel Mr. Alex Lee, who serves as Deputy Assistant Secretary for South America and Cuba in the Bureau of Western Hemisphere Affairs. He is a career member of the Senior Foreign Service and he was named to his current position in February 2014.    Mr. Lee has led the biannual U.S. delegation to the migration talks with Cuba in 2013 and 2014, and was Deputy Chief of Mission at the U.S. Interests Section in Cuba. Prior to joining the State Department Mr. Lee was a staffer in the U.S. House of Representatives.    Dr. Johnstone, the floor is yours.</t>
   </si>
   <si>
-    <t>Johnstone</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnstone. Thank you, Chairman Smith, and members of this subcommittee for inviting us here today to talk about the 2015 Trafficking In Persons, or TIP, Report. It has been my honor to be associated with the TIP Report and to lead the work of the Office to Monitor and Combat Trafficking in Persons in recent months.    I also want to thank Deputy Assistant Secretary Alex Lee and Acting Deputy Assistant Secretary Jim Carouso for testifying alongside me.    Producing the annual TIP Report is a year-round, department-wide effort involving hundreds of staff in Washington and at U.S. Embassies and consulates around the world. The final report reflects the Department's best assessment of foreign government efforts to comply with the minimum standards to eliminate trafficking in persons as outlined in the Trafficking Victims Protection Act, or the     I know how important the issue of modern slavery is to Congress. On behalf of the entire Department I want to thank you for your commitment to this issue and, Mr. Chairman, for your authorship of this important legislation. We are thrilled that your colleagues in the Senate have recently confirmed our new Ambassador-at-Large to head the TIP office, Susan Coppedge. Last week Ambassador Coppedge and the TIP office recognized the 15th anniversary of the TVPA.    Over these last 15 years we have learned that the TVPA's legal framework is what makes the TIP Report such an effective tool in combating human trafficking across the globe. Since the passage of the TVPA, the TIP Report has helped to draw public attention to the issue of human trafficking and prompted foreign governments to take meaningful steps to address this crime. It is often referred to as the gold standard. And I have learned during my time leading the TIP office that it truly lives up to this designation.    Not only is it one of the most effective diplomatic tools our Government has for encouraging a foreign government to take action and make progress in combating modern slavery, it also gives voice to the many stakeholders working on the front lines of the problem, whether they be government officials who want to see change in their country, activists who confront the crime wherever it occurs, or professionals providing services to victims around the world. And it conveys the human face of the world's trafficking crimes to its readers. There is much to be proud of in this report.    As always, the narratives and tier rankings reflect government efforts to increase prosecutions, improve protections and enhance prevention efforts to combat modern slavery, not to the extent of human trafficking in any particular country. We saw tangible progress in many places in the world. Many governments adopted new anti-trafficking laws or improved existing laws, strengthened their law enforcement efforts to convict and punish traffickers, increased inter-governmental coordination to combat human trafficking by establishing senior-level bodies and adopting national action plans, and improved victim protection measures.    Between April 2014 and March 2015, Afghanistan, Angola, Barbados, the Czech Republic, Eritrea, Sierra Leone, and Sudan all became parties to the 2000 U.N. TIP Protocol, which we also refer to as the Palermo Protocol. Of the 188 countries and territories assessed in the 2015 TIP Report, 18 countries were upgraded this year. Unfortunately, we also saw efforts fall short in the 18 countries that were downgraded. Much work remains, and all of us must continue to improve our efforts to fight this crime.    We will continue to use the report to elevate human trafficking and encourage governments to implement the actions recommended in the TIP Report. Secretary Kerry personally raises the issues with foreign leaders, as he recently did in both Cuba and Malaysia. Ultimately, the purpose of the report and our shared goal is to effect change. We continuously review how we can use the report ever more effectively as a lever year-round to motivate tangible progress around the world.    For example, I just returned from a productive trip to Thailand, Malaysia, Hong Kong, and China during which I urged these governments to make stronger efforts to implement the recommendations in the 2015 TIP Report. I was pleased to see that every official I met with was aware of their tier designation in the TIP Report. I won't claim that all these officials fully agreed with our assessment, but the report and minimum standards have clearly focused attention on the realities of modern slavery and the tangible steps required to combat this crime.    It was also clear in each country I visited last month that officials in our Embassies and consulates are regularly engaging their host governments to improve their anti-trafficking efforts and to implement the TIP Report recommendations. Amidst all the important information found in the annual TIP Report, one message becomes clear year after year: Human trafficking is a challenge in nearly every corner of the globe, including here in the United States. Governments all over the world, including those on Tier 1, struggle to keep up with a crime that affects millions of individuals compelled into service for sex or labor or both. We must all continue to improve our efforts to fight and end this crime.    We know our work is critical. We remain committed to addressing these challenges. And we look forward to helping to create a world free from modern slavery.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Would either of you like to add? I know it is a joint statement but please.</t>
   </si>
   <si>
-    <t>Carouso</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carouso. Thank you, Chairman Smith, and members of the subcommittee. It is a privilege to testify with Dr. Kari Johnstone. This acknowledged expert on this issue has done so much to combat trafficking across the region, I echo her appreciation for inviting us here today to talk about the 2015 Trafficking In Persons Report. And I want to again acknowledge the work of this subcommittee and you, too, Mr. Chairman, on the importance of this report for the work we do in our Embassies across the region.    As Dr. Johnstone explained, producing the TIP Report is a year-round Department-wide effort involving all of our Embassies and consulates around the world. As a Foreign Service Officer I have experience myself when I served in Thailand I was in the border with China I was sent to a room full of garlic, a mountain of garlic, and all these young women peeling the garlic, speaking Chinese. Obviously they didn't belong in Thailand.    The credibility that we have as an Embassy, as U.S. Embassy employees, and using tools like the TIP Report help us solve problems like that. And some of my proudest moments are to be able to deal with things like that.    It truly is, the TIP Report, is one of the best diplomatic tools we have to ensure the governments across the region take seriously the efforts to combat trafficking in persons. When progress is insufficient, as it unfortunately is in a number of countries in East Asia and the Pacific, the recommendations of the TIP Report provide guidance, concrete guidance, to our Embassies and consulates overseas as they carry out their diplomatic duties, as the Ambassador was saying.    EAP and the TIP office collaborate closely with foreign governments and international partners to combat trafficking. EAP and the TIP office also work very closely with federal partners to provide foreign assistance to combat human trafficking, particularly the Bureau of International Narcotics and Law Enforcement; Population, Refugees, and Migration; Bureau of Democracy, Human Rights, and Labor; USAID, and the Department of Labor. The TIP office currently funds 20 projects in 14 EAP countries.    I would like to just highlight a few examples of this bilateral engagement. In the Philippines, civil society organizations are providing law enforcement with training and support to address the ongoing commercial sexual exploitation of children. Across the Pacific Islands we fund programs to enhance victim protection, strengthen anti-trafficking investigations and prosecutions.    In Thailand we recently collaborated with the Department of Homeland Security to embed agents in the Royal Thai Police's Anti-Trafficking Division and we are considering ways to replicate that model in other countries.    Our approach to trafficking is not limited to just bilateral engagements. Due in part to the focus the U.S. Government places on combating trafficking in the region, we are working with ASEAN, the Association of Southeast Asian Nations, as they come close to endorsing a Convention on Trafficking in Persons. And the State Department is planning to fund regional ASEAN projects to help meet the requirements of the convention.    Year-round, even after the report is complete, U.S. officials at every level from Ambassadors down to the most junior officer regularly engage host governments in trafficking issues. From my own experience I know that these efforts are well-integrated into our Embassies' overall strategic plans as well as their daily work. And thanks largely to the effectiveness of the report's tier ranking system, we are able to urge progress. Armed with these rankings, the TIP office, EAP, and our posts overseas will continue to be able to effectively collaborate on programs and diplomatic strategies better combating this scourge in the future.    Once again I truly thank you and we look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much.    Mr. Lee.</t>
   </si>
   <si>
-    <t>Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lee. I have a short statement.    Thank you, Chairman Smith and members of the subcommittee for the opportunity to develop and present remarks about the 2015 Trafficking In Persons Report.    The scourge of modern day trafficking in persons touches every region of the globe, including that of the Western Hemisphere. And the Bureau of the Western Hemisphere Affairs takes trafficking in persons and the challenge of addressing effective solutions to it very seriously. We regularly engage with partner governments to encourage the prosecution of traffickers, provide protection to victims, and to provide programs for prevention.    Our Embassy personnel are on the front lines of this diplomatic engagement, whether at the senior level of the front office of our Ambassadors, whether at the working level with the ministries of foreign affairs, justice, or the security or public security ministries. And in addition, our Embassy personnel provide the reporting that informs much of the annual Trafficking In Persons Report.    U.S. programs that promote rule of law, good governance, citizen security, and economic prosperity throughout the Western Hemisphere seek to address the underlying factors that allow trafficking in persons to persist. For example, the Department of State funds capacity building of law enforcement and immigration officials in the region to screen and identify victims of human trafficking and to investigate and prosecute those cases.    We work closely with the Office to Monitor and Combat Trafficking in Persons and with partner governments to compile the most accurate information that will allow us and our partners to assess government efforts and work toward the most effective solutions.    I look forward to answering your questions.    [The joint statement of Ms. Johnstone, Mr. Carouso, and Mr. Lee follows:]                              ----------                              </t>
   </si>
   <si>
@@ -581,9 +551,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. And without objection, and I mentioned this earlier I believe, but if not I am doing it now, very incisive articles by Reuters reporters Jason Szep and Matt Spetalnick will be made a part of the record.    And also a series of reports of commercial fishing, slavery in Papua New Guinea and Malaysia by Robin McDowell and Martha Mendoza from the Associated Press. Without objection I would like to make those a part of the record as well.    Without objection too, I yield to my good friend and colleague for any comments he might have or questions.</t>
-  </si>
-  <si>
-    <t>Sherman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    Dr. Johnstone, you have an outstanding reputation. If you would actually tell us something, I would believe it. If you are just going to tell us that the decision was made by Secretary Kerry, you are not qualified to psychoanalyze him. If he made the decision, we ought to have him here and ask him. Because we asked you what your opinion is, and you won't tell us.    But let me go at this a different way. I tend to believe what Reuters reports. Pretty accurate service. More accurate than most. They report that Malaysia, Cuba, and China all got better ratings than your office wanted to give them. Can you give me any reason to disbelieve Reuters?</t>
@@ -1105,11 +1072,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1129,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1157,11 +1120,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1181,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1209,11 +1168,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1233,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1261,11 +1216,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1285,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1313,11 +1264,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1337,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1365,11 +1312,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1389,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1417,11 +1360,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1441,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1469,11 +1408,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1493,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1521,11 +1456,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1545,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1573,11 +1504,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1597,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1625,11 +1552,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1649,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1677,11 +1600,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1701,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1729,11 +1648,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1753,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1781,11 +1696,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1805,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1833,11 +1744,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1857,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1883,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1911,11 +1816,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1935,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1963,11 +1864,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1987,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2013,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2039,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2067,11 +1960,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2091,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2117,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2143,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2169,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2195,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2221,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2247,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2273,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2299,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2325,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2351,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2377,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2403,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2429,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2455,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2481,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2507,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2533,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2559,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2585,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2611,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2637,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2663,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2689,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2715,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2741,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2767,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2793,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2819,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2845,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2871,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2897,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2923,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2949,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2975,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3001,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3027,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3053,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3079,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3105,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3131,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3157,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3183,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3209,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3235,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3261,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3287,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3313,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3339,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3367,11 +3160,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3391,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3419,11 +3208,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3443,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3469,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3495,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3521,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3547,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3575,11 +3352,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3599,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3627,11 +3400,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3651,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3679,11 +3448,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3703,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3731,11 +3496,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3755,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3783,11 +3544,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3807,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3835,11 +3592,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3859,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3887,11 +3640,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3913,11 +3664,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3937,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
-      </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3965,11 +3712,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3989,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4015,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4041,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4067,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4093,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4119,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4145,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4171,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4197,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4223,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4249,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4275,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4301,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4327,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4353,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4379,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4405,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4431,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4457,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4483,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4509,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4535,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4561,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4587,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4613,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4639,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4665,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4691,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4717,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4743,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
-      </c>
-      <c r="G142" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4769,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4795,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4821,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4847,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4873,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4899,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4925,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4951,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4977,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5003,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5029,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5055,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5081,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5109,11 +4768,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5133,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5161,11 +4816,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5185,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
-      </c>
-      <c r="G159" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5213,11 +4864,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5237,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
-      </c>
-      <c r="G161" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5265,11 +4912,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5289,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
-      </c>
-      <c r="G163" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5315,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
-      </c>
-      <c r="G164" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5341,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
-      </c>
-      <c r="G165" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5367,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
-      </c>
-      <c r="G166" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5393,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
-      </c>
-      <c r="G167" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5419,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
-      </c>
-      <c r="G168" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5445,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
-      </c>
-      <c r="G169" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5471,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
-      </c>
-      <c r="G170" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5497,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
-      </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5523,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
-      </c>
-      <c r="G172" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5549,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
-      </c>
-      <c r="G173" t="s">
+        <v>27</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>189</v>
-      </c>
-      <c r="H173" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5575,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
-      </c>
-      <c r="G174" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5601,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
-      </c>
-      <c r="G175" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5627,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
-      </c>
-      <c r="G176" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5653,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
-      </c>
-      <c r="G177" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5679,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
-      </c>
-      <c r="G178" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5705,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
-      </c>
-      <c r="G179" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5731,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
-      </c>
-      <c r="G180" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5757,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
-      </c>
-      <c r="G181" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5783,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G182" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5809,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
-      </c>
-      <c r="G183" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5835,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
-      </c>
-      <c r="G184" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5861,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
-      </c>
-      <c r="G185" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5887,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
-      </c>
-      <c r="G186" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5913,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
-      </c>
-      <c r="G187" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5939,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
-      </c>
-      <c r="G188" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5965,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
-      </c>
-      <c r="G189" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5993,11 +5584,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6017,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
-      </c>
-      <c r="G191" t="s">
-        <v>189</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6045,11 +5632,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6069,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
-      </c>
-      <c r="G193" t="s">
-        <v>40</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6097,11 +5680,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6123,11 +5704,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6149,11 +5728,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6175,11 +5752,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6201,11 +5776,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6227,11 +5800,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6253,11 +5824,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6279,11 +5848,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6305,11 +5872,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6331,11 +5896,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97461.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97461.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. The subcommittee will come to order. And good afternoon to everyone.    We have come a long way since the September 14, 1999 hearing in this room that I chaired on human trafficking, one of a series that continues to this day. At that particular hearing, then Assistant Secretary of State for the Bureau of Democracy, Human Rights, and Labor Harold Koh called human trafficking a ``global plague'' and said that while the Clinton administration supported the objective of my bill to combat human trafficking, he testified that the ``existing legislative framework was sufficient and that new legislation should not focus on developing new institutions or establishing onerous new requirements.''    No TIP office, no TIP Report, no TIP sanctions, he said. Beefed up reporting in the annual country reports of human rights practices would suffice. Assistant Secretary Koh testified that the administration strongly objected to singling out and sanctioning nations with poor records and government complicity in trafficking, but did agree on the need for alien asylum protection and enhanced criminal penalties for traffickers that was also contained in my legislation.    That said, I pushed ahead in a bipartisan fashion and crafted a comprehensive piece of legislation, landmark legislation, known as the Trafficking Victims Protection Act of 2000 which just celebrated its 15th anniversary of when it was signed into law on October 28th.    The power of the Trafficking in Persons Report, a mainstay of the legislation, rests on its credibility. And the credibility of the report rests on its accuracy. We must get the report right--no fudging, no favors to nations based on other agendas--or we risk losing the most effective tool we have to help the more than 20 million victims of trafficking enslaved around the world.    Some countries, as you know, as the distinguished people at our witness table know, openly credit the TIP Report for their increased and effective anti-trafficking response. Over the last 14 years, now into the 15th, more than 100 countries have enacted anti-trafficking laws, and many countries have taken other steps required to significantly raise their tier rankings. Tier 1 is for those who fully meet minimum standards; Tier 2 is for those who are making significant efforts to meet minimum standards and; Tier 3 is for those who are not making significant efforts to meet minimum standards and, indeed, may be subject to sanctions.    And for those between Tier 2 and 3, Congress in 2003 created a Tier 2 Watch List for those who have undertaken significant anti-trafficking steps, often late in the evaluation year. And just for the record, I wrote that law too. Unfortunately, this ranking has been misused to allow countries to escape accountability, a loophole we thought we had closed with the Wilberforce Act. And that bill was sponsored by Howard Berman.    We are holding this hearing today to focus due to well-founded concern that some of the rankings in the most recent report are inaccurate and undermine the credibility of the report. Grade inflation for certain favored countries undermines accuracy and accountability and, I would respectfully submit, demoralizes countries that actually made significant progress last year.    The State Department heard from many House Members, 161 to be exact, when it was leaked that Malaysia was upgraded this year from Tier 3 to the Tier 2 Watch List. The report justified the upgrade because Malaysia introduced, but did not pass, an amendment to their trafficking law and allowed a limited number of their trafficking victims to work outside of detention while keeping the rest of the victims in detention.    These incomplete actions pale in comparison to the size of Malaysia's trafficking problem. Malaysia was the subject of an incisive Reuters investigative report in 2014. And without objection, I'd like to make that report a part of the record.    It found that human traffickers were keeping hundreds of Rohingya refugees from Burma captive in houses in northern Malaysia, beating them, depriving them of food, and demanding a ransom from their families.    At least 2 million vulnerable migrants work in the informal economy in Malaysia. NGOs on the ground tell us that the traffickers operate openly and with impunity, and that those who get in their way are killed. Only three traffickers were convicted in Malaysia last year, three in a country of more than 30 million people.    I note for the record and parenthetically, as we went through the minimum standards over the last decade-and-a-half, we were always trying to calibrate those minimum standards because some countries like to game the system. In the very first piece of legislation we talked about the prosecutions and arrests and then found lots of prosecutions, but very few convictions. Then we started looking at how long and whether or not that individual or individuals served any time in jail, incarcerated.    Again, in Malaysia only three traffickers were convicted last year.    If that ratio were not bad enough, it also marks the third year of decline for convictions in Malaysia. Three convictions is one-third the number of convictions in Malaysia that they had in 2013 when Malaysia was Tier 3, and one-seventh of the convictions they had in 2012.    Trafficking in Malaysia is getting worse and the government's enforcement of the law was nearly non-existent, and yet Malaysia was upgraded. So what happened? Was Malaysia's upgrade in any way related to that nation's eligibility to join the Trans-Pacific Partnership?    This spring, Congress approved the Trade Priorities Act of 2015, excluding Tier 3 countries from expedited consideration by the Congress, for the simple reason that Congress does not want to increase trade with countries that engage in persistent trafficking, including labor trafficking. Malaysia was disqualified until their upgrade.    More than bad optics, more than fighting the will of Congress, such circumventing of accountability is disastrous for labor trafficking victims and victims of all kinds in Malaysia. Instead of demanding change before Malaysia became a major trading partner, the administration weakened our standards to give Malaysia a pass. In other words, we looked the other way to empower a slave economy.    The administration also upgraded Cuba this year to the Tier 2 Watch List on very flimsy justifications, namely that Cuba began sharing information with the U.S. on trafficking and that it convicted 13 traffickers 2 years ago, which is outside of the reporting period. But what has changed in Cuba for trafficking victims in the last year? Cuba legally permits the pimping of 16-year-old girls, it is the top destination in the Western Hemisphere for child sex tourism, and does not criminalize labor trafficking at all.    And I want to say again parenthetically, I read the TIP Report for all these countries. The Cuba report is excellent but it doesn't comport with the ranking. You got it right on the report, not right on the ranking.    On the labor trafficking side, Cuba does not criminalize labor trafficking. Indeed, Cuban healthcare personnel, who are sent abroad by the Castro regime to generate income for the government, report being forced to work in medical missions, having their passports withheld, and their families threatened.    Again, as the author of the TVPA, I have to say unequivocally that the spirit and the letter of the law make clear that trafficking rankings should not be used in the hopes of bringing about better bilateral relations with countries such as Cuba. Rather, better relations with Cuba should be preconditioned on real protection for Cuba's exploited and abused children and women, and recognition of labor trafficking which, again, they don't recognize it.    The bar also seems to be lowered in the case of Uzbekistan which was upgraded to the Tier 2 Watch List despite the fact that Uzbekistan's Government openly and unapologetically forces its population into forced labor every year during the cotton harvest, something that Ambassador Lagon previously testified to at a hearing here, having similar parallels to slavery in this country harvesting cotton before emancipation took place in the United States.    In recent years the government has shifted away from pulling young children out of school and allowed the ILO to monitor conditions. But instead of children, they conscripted adults, continuing this systematic exploitation of its population.    China's premature upgrade to Tier 2 Watch List in 2014, and its continued presence there in the 2015 report, also raises very serious questions. How can a country that systematically trafficks its own people be anything but Tier 3?    After 1 year on the Tier 3 list in 2013, China passed a law to allegedly closed its 320 re-education through labor detention centers which forced prisoners and other detainees to perform manual labor and padded the pockets of the government. The State Department upgraded China because of that reform in 2014. But now we know from the report--and I again would add parenthetically, I chair the Congressional-Executive Commission on China and we just put out our comprehensive report on China. They just simply have changed how they do business, not the fact that the laogai system continues and is a terrible blight on the Government of China.    The report itself says the government only closed several of the 320 forced labor sites and converted other reform through labor facilities into state-sponsored drug detention or custody and education centers. Again, tjere was a great deal of hype about this; there is very little when it came to actually changing the system. In other words, China continues to force detained citizens to perform manual labor and yet it got the tier upgrade it was given for allegedly ending this practice.    I would note and remind my colleague that I have chaired 55 hearings on human rights in China, sitting right where you sit. Years ago it was six members, including a Tibetan Palden Gyatso, who talked about the so-called reform through labor camps. He held up a cattle prod and said, ``They put it here in our groin area, and that's how they get us when we are reluctant to perform the mission.'' Twelve to fourteen hours a day, or more, they are forced to be a part of work, so-called reform through labor.    That hasn't changed. It has morphed into a different but a very similar situation. And, again, that was the pretext for the upgrade.    Additionally, China's coercive of population control policy, in combination with the cultural preference for boys, has resulted in tens of millions of women and girls missing from the population, making China a regional magnet for sex and bride trafficking as men who reach marrying age, simply cannot find a wife. Just ask the Burmese, Cambodian, Vietnamese, Laotian, and North Korean women imported to meet Chinese demand.    And let me say and note here as well, I wrote an op-ed, it was in the Washington Times yesterday, Nicholas Eberstadt did an excellent one that was contained in The Wall Street Journal, and others have spoken out on the so-called relaxation of the one-child policy to a two-child policy has not changed one iota the coercive aspects of that population control program in China with forced abortion and forced sterilization as the mainstays and these terrible fees that they impose, draconian fines, as a means of implementation.    So the continuance of missing girls will continue in China, and that will lead to more sex trafficking.    We have had, at this subcommittee, a number of women who have been compelled to perform sex work, in other words sex trafficking, from other nations. An estimated 90 percent of North Korean women seeking asylum in China have been trafficked. We have had them sit here and tell their stories with very few lucky ones. And of course China breaks its word to the Refugee Convention, and rather than providing them some kind of durable remedy or protection, sends them right back to North Korea at the end of their exploitation, where then they are either executed or sent to that gulag system.    Consider this: China convicted 35 traffickers last year in a country of 1.3 billion people. Three five. Not 3,500, not 35,000, 35.    Thailand by contrast, a Tier 3 country of 67 million people, had 151 convictions in 2014. Nothing, and I say again, nothing in China's deplorable record in 2014 warrants anything but a Tier 3 ranking. Thailand by contrast is Tier 3. China, with such a small number, a piddling number of convictions and government complicity up and down the system, is no longer a Tier 3 country.    I wrote the TVPA to allow flexibility and discernment in rewarding a country for making progress over their record from the year before, and for significant, not modest or superficial changes, efforts that go to prosecution, prevention, and protection.    Having a 3-day conference or making something around the edges isn't what constitutes significant. Tier rankings are a tool to aid real change, not a rubber stamp for simply holding a meeting or being a major trading partner. The rankings in this 2015 report seem to be a real opportunity lost for several countries, not just for the countries we gave a pass to, but other countries where good faith efforts were made but were not sufficiently acknowledged.    No country will take U.S. trafficking rankings seriously when there seems to be a wink and a nod agreement to look the other way when it suits U.S. business or other interests. Tellingly, Reuters reports that there was a lot of infighting at the State Department between the trafficking experts at the TIP office, who I have the highest regard for, and the bureaus. This year the two sides split, according to Reuters, on 17 countries, and J/TIP lost almost all of those conflicts.    I look forward to our distinguished witnesses. But I would like to yield to my friend and colleague Ms. Bass for any opening comments.</t>
   </si>
   <si>
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. Thank you. Thank you, Mr. Chair. And, as usual, I want to thank you for your leadership on this issue and your creation of the TIP Report to begin with.    I want to say that I share your concerns over Malaysia and Malaysia's upgrading and say that there might be some of our colleagues that come and attend this session so that they can express their concerns over that.    I don't though, however, share your concerns about Cuba. And, in fact, I have been impressed with the way Cuba has responded to trafficking, especially sex trafficking. And I remember years ago when it was so obvious and open and flourishing. And what I saw took place is an absolute decline in this and the Cuban Government providing a lot of education.    What was happening in the early years was that girls and women from the countryside were coming to the city because there wasn't any employment. And so to discourage that they provided a lot of education. And they actually created a soap opera on television that was shown widely throughout the country to educate people in the countryside and ask them not to come to the city and get involved with this.    So I do think that improvements have been made there and that it is important for us to acknowledge it.    In regard to doctors that go over and go to different countries, I have spoken with many of them. And one of the things that I think that we are doing that I hope we stop, especially with the change in policy toward Cuba, is to try to seduce some of the Cuban doctors that are practicing around the world from returning to Cuba but actually to come to the United States.    And when you see doctors that are providing healthcare in developing countries, to me it is important that they continue to do that.    I also have to say that I often cringe when comparisons are made with other countries to slavery that took place in the United States, in particular because you are talking about my ancestors who actually don't even know who they were. And when I think about our Capitol, our Nation's Capitol which was built with slave labor, what we did is that we rented, the U.S. Government rented slaves from local plantations and they built the U.S. Capitol. And there is an acknowledgment of this in the Capitol Visitor Center.    And so I think sometimes when those comparisons are made it can minimize what actually took place in this country for over 200 years.    And then in terms of the Trafficking Report, I am always interested in trafficking that takes place in the United States, in particular with girls who are in the foster care system. And I am proud to say that in my County of Los Angeles the Sheriff's Department as well as social services got together. And our Sheriff's Department have now adopted a policy where they will not arrest girls who are caught up in trafficking, and that they will stop using the term ``John'' to refer to the child molesters, because that is actually who they are.    So while we hold the world accountable, and rightfully so, I think it is important that we continue to hold our own country accountable. And I appreciate that in the TIP Report it does have a section on the United States. But I want to continue to call for our own country, and as a matter of fact all 50 states, to adopt a policy where they will no longer arrest girls.    Thank you. With that I yield back my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank you for your eloquent remarks as you opened up this particular hearing.    To my right, to your left is the gentlewoman from Missouri, Ms. Wagner. And as the ranking member was talking about putting the emphasis on what we do here in the United States, it has not only been her calling but her passion to address that. And so I wanted to acknowledge not only her presence but her willingness to engage on this horrific crime against, for many practical purposes, young girls, but not just young girls, young boys as we well know, but not only here in the United States, but internationally. And so her presence here hopefully underscores the importance that all Members of Congress, whether they are on this committee or not, places on this particular topic.    I am troubled by the trend that I see. And I want to be very specific in terms of what I am looking for today from each one of you. I don't doubt the work that many of you do and the passion at which you do it. This is some of you have been called to this and you see it as a personal mission and not just a profession. And I thank you for that.    But I am troubled by what I see is a manipulation for political purposes of the TIP Report that basically has elevated to a level beyond many of you who are seated here at that particular desk. I am troubled by the reports, not only that the chairman has mentioned, but specifically how we seem to have all the way up to Secretary Kerry and those that are just shy of his position intervening with regards to decisions on who will be included and who will not be included.    So let me be very clear. Many times when we have the Secretary or an Under Secretary coming in to testify and things have not gone well, they say that they oversee a vast agency of hundreds if not thousands of different reporting supervisors and managers, and they couldn't individually weigh in on those when it comes to accountability. But yet as we started to do the analysis with who was included and who was excluded, it appears that it goes to the very highest levels within the State Department and then weighing in on who should be on the report and who should not.    That is troubling because once you get away from those who best understand it, the decisions are political. It is beyond my comprehension, and certainly I find it extremely interesting that Malaysia would have been removed from their status during a TPP negotiation process that is ongoing. And yet we somehow see this as being a pragmatic decision when very little on the ground appears to have changed.    Either the report and our efforts to correct these terrible crimes are meaningful or they become a political tool. And if they become a political tool, then indeed we need to do away with the agency and the very report itself because it is nothing more than sending the wrong message that we don't take this serious.    I am here today because I take this serious. I take it very serious. My daughter at 15 years of age brought this particular subject really up close and personal when she talked about what was happening in the United States and abroad. And if we are not going to stand up and be a voice, then who will?    And so I am being direct. I expect direct answers as we go into the question and answer period, and specifically with what kinds of intervention has taken place that could potentially be perceived as political.    And with that, Mr. Chairman, I would yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman. I thank the witnesses for being here today. And also thank you, Mr. Chairman, and Ranking Member Bass for calling this hearing and for being such leaders in the fight against human trafficking, and particularly both here in the United States and around the world.    And thank you, Mr. Chairman, for your legislation that created the TIP Report in your early years upon this issue.    The Trafficking In Persons Report which was authorized by Congress in 2000 is designed to be used as an important tool in our international diplomacy to incentivize countries to take important steps to combat human trafficking and sanction those who fall short. Since the report's inception, more than 120 countries have enacted anti-trafficking laws and many countries have taken other steps required to significantly raise their tier rankings, citing the report as a key factor in their increased anti-trafficking response.    And that is why it is my judgment that it is particularly alarming and really a shame that we are here today discussing what seems to be the obvious politicization of the report in the context of Malaysia.    I do not make that statement lightly. I think that the men and women of the State Department are dedicated public servants who fight every day to promote American values abroad. But it is nearly impossible, looking at the facts, to conclude anything other than the determination to move Malaysia from Tier 3 to Tier 2 Watch List status is without sufficient justification, and ill-advised at best.    Universally, advocates on the ground and in the anti-human trafficking community here in the United States have reported that Malaysia has made minimal progress and, in fact, has fallen in some key areas in their anti-trafficking campaign in the past year. Both The Washington Post and The New York Times editorial boards raised concerns about this year's report.    Moreover, the anti-trafficking amendments that were apparently taken into account to improve Malaysia's score have still not been adopted, more than 7 months after they were used in part to justify the change in ranking. With TPP eligibility for Malaysia hinging on this determination, it certainly comes off as a political one.    I hope to hear a thorough explanation today of how this determination was made and by whom, but I fear that the damage has already been done. Countries around the world, many of whom have made much more progress in their countries than the countries that we are going to be discussing today have seen the discussion around this year's report and decided that politics is more important than their actions. And that is a regrettable consequence.    So I hope to hear from our witnesses how the State Department intends to take action to restores credibility to this vitally important report and to restore our credibility around the world on the issue of anti-trafficking efforts.    And with that I yield back, Mr. Chairman. Thank you.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Chairman.    From what I have heard from my colleagues, if any of this is true this is alarming. So I am going to yield the rest of my time so we can hear from the witnesses.</t>
   </si>
   <si>
@@ -100,6 +133,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Wagner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wagner. Thank you very, very much, Mr. Chairman. And I thank our witnesses for being here today to testify, many of whom are good and loyal, upstanding members of the State Department, of which I had the pleasure of serving as a United States Ambassador for 4 years. I applaud your work in this area. I applaud the chairman's work, lifelong work in this area, along with Ranking Member Bass and the kind indulgence of the subcommittee in letting me come and speak on this very important issue.    And I thank you for convening this hearing to investigate the potential political interference in this year's Trafficking In Persons Report. I applaud the committee's efforts to increase awareness of human trafficking, especially Chairman Smith's ongoing leadership and dedication to combating this terrible crime that affects the most vulnerable members of our society, both here in the United States of America and around the globe.    On July 27th, the State Department published the 15th installment of the Trafficking In Persons Report. This independent annual publication ranks 188 countries on their efforts to combat human trafficking in accordance with standards outlined in the Trafficking Victims Protection Act. As a former United States Ambassador, I know well, very well, how the TIP Report serves as an important tool for pressuring countries to take meaningful action to address human rights violations.    Frankly, my very first introduction to the world of human trafficking, both sex trafficking and labor trafficking, girls, boys, men, women, all of the above, came when I served at the State Department as a U.S. Ambassador and was responsible for the TIP Report that came out of my mission.    And thus, when I came home from my tour of duty began to delve into this horrific crime against humanity and the most vulnerable, mostly young girls and women in the United States of America, and have worked hard with many on this committee and many throughout Congress in a bipartisan way to pass some of the most cutting edge legislation that we have seen in many, many years on human trafficking here domestically, and I am pleased that the President signed into law this past May.    But it is absolutely, the TIP Report is key, key to addressing human rights violations.    These recent media reports indicate that political appointees meddled in the compilation of this publication by challenging State Department human rights experts' ratings recommendations for 17 political strategic countries, and inflating the assessment of 14 of these. Over the objections, I am told, of the State Department's own experts, Malaysia and Cuba were among countries upgraded from the blacklist of worst offenders on human trafficking.    Malaysia's unsubstantiated upgrade is particularly alarming because of its overt importance to the Trans-Pacific Partnership. Congress has restricted TPP negotiations with countries that have the worst records in combating human trafficking. Malaysia was one of those countries. However, on the eve of the July TPP negotiating round, the State Department took Malaysia off its human rights blacklist by upgrading its status from a Tier 3 to the less incriminating Tier 2 Watch List rating.    If it is true that the administration politicized this report there are questions about why they chose to significantly, significantly diminish a tool that has been effective in fighting the scourge of human trafficking around the world. The United States cannot be a leader in the fight against human trafficking if we do not honestly assess the state of the problem for all countries, even our own, and most importantly including trading partners like Malaysia. The U.S. cannot allow political interest to outweigh the safety and the freedom of the thousands of trafficked men, women, and children. We have to hold governments accountable for their actions.    I welcome the continuing investigations into this year's TIP Report, and I would urge the administration to remain vigilant against any attempts to circumvent the veracity of future TIP reports and the protections they provide.    I thank again the chairman, the ranking member and other members of the subcommittee for their kind indulgence. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,24 +145,39 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming. I like you a lot. Yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you.    Let me now introduce our very distinguished panel beginning with Dr. Kari Johnstone who is the Principal Deputy Director of the Office to Monitor and Combat Trafficking in Persons. She began serving in this role in November 2014.    Previously she served in the Bureau of Democracy, Human Rights, and Labor in the Office of International Religious Freedom. She also served as the Director for Russia and Central Asia at the National Security Staff of the White House, as an election officer at the U.S. Embassy in Afghanistan, and the Human Rights Officer at the U.S. Embassy in Uzbekistan.    Then I would like to introduce Mr. James Carouso who is the Acting Deputy Assistant Secretary in the Bureau of East Asian and Pacific Affairs. He joined the Department of State in 1995 following a 14-year career in international banking and finance.    Most recently Mr. Carouso served as the Counselor for Economic Affairs at the U.S. Embassy in Indonesia. Prior to that he served with the State Department in a variety of economic and commercial roles in the Dominican Republic, South Africa, Australia, Thailand, and Cyprus.    And finally we'll hear from in this panel Mr. Alex Lee, who serves as Deputy Assistant Secretary for South America and Cuba in the Bureau of Western Hemisphere Affairs. He is a career member of the Senior Foreign Service and he was named to his current position in February 2014.    Mr. Lee has led the biannual U.S. delegation to the migration talks with Cuba in 2013 and 2014, and was Deputy Chief of Mission at the U.S. Interests Section in Cuba. Prior to joining the State Department Mr. Lee was a staffer in the U.S. House of Representatives.    Dr. Johnstone, the floor is yours.</t>
   </si>
   <si>
+    <t>Johnstone</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnstone. Thank you, Chairman Smith, and members of this subcommittee for inviting us here today to talk about the 2015 Trafficking In Persons, or TIP, Report. It has been my honor to be associated with the TIP Report and to lead the work of the Office to Monitor and Combat Trafficking in Persons in recent months.    I also want to thank Deputy Assistant Secretary Alex Lee and Acting Deputy Assistant Secretary Jim Carouso for testifying alongside me.    Producing the annual TIP Report is a year-round, department-wide effort involving hundreds of staff in Washington and at U.S. Embassies and consulates around the world. The final report reflects the Department's best assessment of foreign government efforts to comply with the minimum standards to eliminate trafficking in persons as outlined in the Trafficking Victims Protection Act, or the     I know how important the issue of modern slavery is to Congress. On behalf of the entire Department I want to thank you for your commitment to this issue and, Mr. Chairman, for your authorship of this important legislation. We are thrilled that your colleagues in the Senate have recently confirmed our new Ambassador-at-Large to head the TIP office, Susan Coppedge. Last week Ambassador Coppedge and the TIP office recognized the 15th anniversary of the TVPA.    Over these last 15 years we have learned that the TVPA's legal framework is what makes the TIP Report such an effective tool in combating human trafficking across the globe. Since the passage of the TVPA, the TIP Report has helped to draw public attention to the issue of human trafficking and prompted foreign governments to take meaningful steps to address this crime. It is often referred to as the gold standard. And I have learned during my time leading the TIP office that it truly lives up to this designation.    Not only is it one of the most effective diplomatic tools our Government has for encouraging a foreign government to take action and make progress in combating modern slavery, it also gives voice to the many stakeholders working on the front lines of the problem, whether they be government officials who want to see change in their country, activists who confront the crime wherever it occurs, or professionals providing services to victims around the world. And it conveys the human face of the world's trafficking crimes to its readers. There is much to be proud of in this report.    As always, the narratives and tier rankings reflect government efforts to increase prosecutions, improve protections and enhance prevention efforts to combat modern slavery, not to the extent of human trafficking in any particular country. We saw tangible progress in many places in the world. Many governments adopted new anti-trafficking laws or improved existing laws, strengthened their law enforcement efforts to convict and punish traffickers, increased inter-governmental coordination to combat human trafficking by establishing senior-level bodies and adopting national action plans, and improved victim protection measures.    Between April 2014 and March 2015, Afghanistan, Angola, Barbados, the Czech Republic, Eritrea, Sierra Leone, and Sudan all became parties to the 2000 U.N. TIP Protocol, which we also refer to as the Palermo Protocol. Of the 188 countries and territories assessed in the 2015 TIP Report, 18 countries were upgraded this year. Unfortunately, we also saw efforts fall short in the 18 countries that were downgraded. Much work remains, and all of us must continue to improve our efforts to fight this crime.    We will continue to use the report to elevate human trafficking and encourage governments to implement the actions recommended in the TIP Report. Secretary Kerry personally raises the issues with foreign leaders, as he recently did in both Cuba and Malaysia. Ultimately, the purpose of the report and our shared goal is to effect change. We continuously review how we can use the report ever more effectively as a lever year-round to motivate tangible progress around the world.    For example, I just returned from a productive trip to Thailand, Malaysia, Hong Kong, and China during which I urged these governments to make stronger efforts to implement the recommendations in the 2015 TIP Report. I was pleased to see that every official I met with was aware of their tier designation in the TIP Report. I won't claim that all these officials fully agreed with our assessment, but the report and minimum standards have clearly focused attention on the realities of modern slavery and the tangible steps required to combat this crime.    It was also clear in each country I visited last month that officials in our Embassies and consulates are regularly engaging their host governments to improve their anti-trafficking efforts and to implement the TIP Report recommendations. Amidst all the important information found in the annual TIP Report, one message becomes clear year after year: Human trafficking is a challenge in nearly every corner of the globe, including here in the United States. Governments all over the world, including those on Tier 1, struggle to keep up with a crime that affects millions of individuals compelled into service for sex or labor or both. We must all continue to improve our efforts to fight and end this crime.    We know our work is critical. We remain committed to addressing these challenges. And we look forward to helping to create a world free from modern slavery.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Would either of you like to add? I know it is a joint statement but please.</t>
   </si>
   <si>
+    <t>Carouso</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carouso. Thank you, Chairman Smith, and members of the subcommittee. It is a privilege to testify with Dr. Kari Johnstone. This acknowledged expert on this issue has done so much to combat trafficking across the region, I echo her appreciation for inviting us here today to talk about the 2015 Trafficking In Persons Report. And I want to again acknowledge the work of this subcommittee and you, too, Mr. Chairman, on the importance of this report for the work we do in our Embassies across the region.    As Dr. Johnstone explained, producing the TIP Report is a year-round Department-wide effort involving all of our Embassies and consulates around the world. As a Foreign Service Officer I have experience myself when I served in Thailand I was in the border with China I was sent to a room full of garlic, a mountain of garlic, and all these young women peeling the garlic, speaking Chinese. Obviously they didn't belong in Thailand.    The credibility that we have as an Embassy, as U.S. Embassy employees, and using tools like the TIP Report help us solve problems like that. And some of my proudest moments are to be able to deal with things like that.    It truly is, the TIP Report, is one of the best diplomatic tools we have to ensure the governments across the region take seriously the efforts to combat trafficking in persons. When progress is insufficient, as it unfortunately is in a number of countries in East Asia and the Pacific, the recommendations of the TIP Report provide guidance, concrete guidance, to our Embassies and consulates overseas as they carry out their diplomatic duties, as the Ambassador was saying.    EAP and the TIP office collaborate closely with foreign governments and international partners to combat trafficking. EAP and the TIP office also work very closely with federal partners to provide foreign assistance to combat human trafficking, particularly the Bureau of International Narcotics and Law Enforcement; Population, Refugees, and Migration; Bureau of Democracy, Human Rights, and Labor; USAID, and the Department of Labor. The TIP office currently funds 20 projects in 14 EAP countries.    I would like to just highlight a few examples of this bilateral engagement. In the Philippines, civil society organizations are providing law enforcement with training and support to address the ongoing commercial sexual exploitation of children. Across the Pacific Islands we fund programs to enhance victim protection, strengthen anti-trafficking investigations and prosecutions.    In Thailand we recently collaborated with the Department of Homeland Security to embed agents in the Royal Thai Police's Anti-Trafficking Division and we are considering ways to replicate that model in other countries.    Our approach to trafficking is not limited to just bilateral engagements. Due in part to the focus the U.S. Government places on combating trafficking in the region, we are working with ASEAN, the Association of Southeast Asian Nations, as they come close to endorsing a Convention on Trafficking in Persons. And the State Department is planning to fund regional ASEAN projects to help meet the requirements of the convention.    Year-round, even after the report is complete, U.S. officials at every level from Ambassadors down to the most junior officer regularly engage host governments in trafficking issues. From my own experience I know that these efforts are well-integrated into our Embassies' overall strategic plans as well as their daily work. And thanks largely to the effectiveness of the report's tier ranking system, we are able to urge progress. Armed with these rankings, the TIP office, EAP, and our posts overseas will continue to be able to effectively collaborate on programs and diplomatic strategies better combating this scourge in the future.    Once again I truly thank you and we look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much.    Mr. Lee.</t>
   </si>
   <si>
+    <t>Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lee. I have a short statement.    Thank you, Chairman Smith and members of the subcommittee for the opportunity to develop and present remarks about the 2015 Trafficking In Persons Report.    The scourge of modern day trafficking in persons touches every region of the globe, including that of the Western Hemisphere. And the Bureau of the Western Hemisphere Affairs takes trafficking in persons and the challenge of addressing effective solutions to it very seriously. We regularly engage with partner governments to encourage the prosecution of traffickers, provide protection to victims, and to provide programs for prevention.    Our Embassy personnel are on the front lines of this diplomatic engagement, whether at the senior level of the front office of our Ambassadors, whether at the working level with the ministries of foreign affairs, justice, or the security or public security ministries. And in addition, our Embassy personnel provide the reporting that informs much of the annual Trafficking In Persons Report.    U.S. programs that promote rule of law, good governance, citizen security, and economic prosperity throughout the Western Hemisphere seek to address the underlying factors that allow trafficking in persons to persist. For example, the Department of State funds capacity building of law enforcement and immigration officials in the region to screen and identify victims of human trafficking and to investigate and prosecute those cases.    We work closely with the Office to Monitor and Combat Trafficking in Persons and with partner governments to compile the most accurate information that will allow us and our partners to assess government efforts and work toward the most effective solutions.    I look forward to answering your questions.    [The joint statement of Ms. Johnstone, Mr. Carouso, and Mr. Lee follows:]                              ----------                              </t>
   </si>
   <si>
@@ -551,6 +602,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. And without objection, and I mentioned this earlier I believe, but if not I am doing it now, very incisive articles by Reuters reporters Jason Szep and Matt Spetalnick will be made a part of the record.    And also a series of reports of commercial fishing, slavery in Papua New Guinea and Malaysia by Robin McDowell and Martha Mendoza from the Associated Press. Without objection I would like to make those a part of the record as well.    Without objection too, I yield to my good friend and colleague for any comments he might have or questions.</t>
+  </si>
+  <si>
+    <t>Sherman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman.    Dr. Johnstone, you have an outstanding reputation. If you would actually tell us something, I would believe it. If you are just going to tell us that the decision was made by Secretary Kerry, you are not qualified to psychoanalyze him. If he made the decision, we ought to have him here and ask him. Because we asked you what your opinion is, and you won't tell us.    But let me go at this a different way. I tend to believe what Reuters reports. Pretty accurate service. More accurate than most. They report that Malaysia, Cuba, and China all got better ratings than your office wanted to give them. Can you give me any reason to disbelieve Reuters?</t>
@@ -1022,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1084,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,4853 +1106,5660 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
+        <v>47</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G104" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G106" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s">
+        <v>53</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
+        <v>53</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G118" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G122" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
       <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G130" t="s">
+        <v>47</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>27</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
+        <v>47</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
+        <v>47</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>27</v>
+      </c>
       <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G136" t="s">
+        <v>47</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
       <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>47</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
       <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>27</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G144" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
       <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s">
+        <v>47</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
+        <v>47</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
       <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G150" t="s">
+        <v>47</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
       <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G152" t="s">
+        <v>47</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
       <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G154" t="s">
+        <v>47</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>27</v>
+      </c>
       <c r="H155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G157" t="s">
+        <v>47</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G159" t="s">
+        <v>47</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G161" t="s">
+        <v>47</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G163" t="s">
+        <v>196</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>27</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G164" t="s">
+        <v>47</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>27</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G165" t="s">
+        <v>196</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>27</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G166" t="s">
+        <v>47</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>27</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G167" t="s">
+        <v>196</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G168" t="s">
+        <v>47</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G169" t="s">
+        <v>196</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G170" t="s">
+        <v>47</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G171" t="s">
+        <v>196</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>27</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G172" t="s">
+        <v>47</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G173" t="s">
+        <v>196</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>27</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G174" t="s">
+        <v>47</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>27</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G175" t="s">
+        <v>196</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>27</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G176" t="s">
+        <v>47</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>27</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G177" t="s">
+        <v>196</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>27</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G178" t="s">
+        <v>47</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>27</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G179" t="s">
+        <v>196</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G180" t="s">
+        <v>47</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>27</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G181" t="s">
+        <v>196</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G182" t="s">
+        <v>47</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G183" t="s">
+        <v>196</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G184" t="s">
+        <v>47</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>27</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G185" t="s">
+        <v>196</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G186" t="s">
+        <v>47</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>27</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G187" t="s">
+        <v>196</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G188" t="s">
+        <v>47</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>27</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G189" t="s">
+        <v>196</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G191" t="s">
+        <v>196</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>27</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G193" t="s">
+        <v>47</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>219</v>
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97461.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97461.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bass</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412552</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Meadows</t>
@@ -1076,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1096,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,5657 +1121,6060 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
-      </c>
-      <c r="G71" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" t="s">
-        <v>47</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
-      </c>
-      <c r="G77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G81" t="s">
-        <v>47</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
-      </c>
-      <c r="G83" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
-      </c>
-      <c r="G85" t="s">
-        <v>47</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
-      </c>
-      <c r="G87" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" t="s">
-        <v>47</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" t="s">
-        <v>47</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" t="s">
-        <v>47</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
-      </c>
-      <c r="G95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
-      </c>
-      <c r="G96" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" t="s">
-        <v>47</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s">
-        <v>47</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>51</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s">
-        <v>47</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s">
-        <v>47</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>51</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" t="s">
-        <v>53</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
-      </c>
-      <c r="G108" t="s">
-        <v>53</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
-      </c>
-      <c r="G111" t="s">
-        <v>53</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
-      </c>
-      <c r="G113" t="s">
-        <v>50</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G114" t="s">
-        <v>47</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>51</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" t="s">
-        <v>47</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>51</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
-      </c>
-      <c r="G118" t="s">
-        <v>47</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>51</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" t="s">
-        <v>47</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>51</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>47</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>51</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
-      </c>
-      <c r="G124" t="s">
-        <v>47</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>51</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" t="s">
-        <v>47</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>51</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
-      </c>
-      <c r="G128" t="s">
-        <v>47</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>51</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" t="s">
-        <v>47</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>51</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>47</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>51</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
-      </c>
-      <c r="G134" t="s">
-        <v>47</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>51</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" t="s">
-        <v>47</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>51</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
-      </c>
-      <c r="G138" t="s">
-        <v>47</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>51</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
-      </c>
-      <c r="G140" t="s">
-        <v>47</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>51</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H141" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
-      </c>
-      <c r="G142" t="s">
-        <v>47</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>51</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H143" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I143" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
-      </c>
-      <c r="G144" t="s">
-        <v>47</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>51</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
-      </c>
-      <c r="G146" t="s">
-        <v>47</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>51</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H147" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148" t="s">
-        <v>47</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>51</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
-      </c>
-      <c r="G150" t="s">
-        <v>47</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>51</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
-      </c>
-      <c r="G152" t="s">
-        <v>47</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>51</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H153" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
-      </c>
-      <c r="G154" t="s">
-        <v>47</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>51</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
-      </c>
-      <c r="G157" t="s">
-        <v>47</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>51</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
-      </c>
-      <c r="G159" t="s">
-        <v>47</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>51</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
-      </c>
-      <c r="G161" t="s">
-        <v>47</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>51</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
-      </c>
-      <c r="G163" t="s">
-        <v>196</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>200</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
-      </c>
-      <c r="G164" t="s">
-        <v>47</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>51</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
-      </c>
-      <c r="G165" t="s">
-        <v>196</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>200</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
-      </c>
-      <c r="G166" t="s">
-        <v>47</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>51</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
-      </c>
-      <c r="G167" t="s">
-        <v>196</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>200</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
-      </c>
-      <c r="G168" t="s">
-        <v>47</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>51</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
-      </c>
-      <c r="G169" t="s">
-        <v>196</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>200</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
-      </c>
-      <c r="G170" t="s">
-        <v>47</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>51</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
-      </c>
-      <c r="G171" t="s">
-        <v>196</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>200</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
-      </c>
-      <c r="G172" t="s">
-        <v>47</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>51</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
-      </c>
-      <c r="G173" t="s">
-        <v>196</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>200</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
-      </c>
-      <c r="G174" t="s">
-        <v>47</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>51</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
-      </c>
-      <c r="G175" t="s">
-        <v>196</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>200</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
-      </c>
-      <c r="G176" t="s">
-        <v>47</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>51</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
-      </c>
-      <c r="G177" t="s">
-        <v>196</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>200</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
-      </c>
-      <c r="G178" t="s">
-        <v>47</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>51</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
-      </c>
-      <c r="G179" t="s">
-        <v>196</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>200</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
-      </c>
-      <c r="G180" t="s">
-        <v>47</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>51</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
-      </c>
-      <c r="G181" t="s">
-        <v>196</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>200</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
-      </c>
-      <c r="G182" t="s">
-        <v>47</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>51</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
-      </c>
-      <c r="G183" t="s">
-        <v>196</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>200</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
-      </c>
-      <c r="G184" t="s">
-        <v>47</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>51</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
-      </c>
-      <c r="G185" t="s">
-        <v>196</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>200</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
-      </c>
-      <c r="G186" t="s">
-        <v>47</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>51</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
-      </c>
-      <c r="G187" t="s">
-        <v>196</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>200</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
-      </c>
-      <c r="G188" t="s">
-        <v>47</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>51</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
-      </c>
-      <c r="G189" t="s">
-        <v>196</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>200</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
-      </c>
-      <c r="G191" t="s">
-        <v>196</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>200</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
-      </c>
-      <c r="G193" t="s">
-        <v>47</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>51</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J200" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I202" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>237</v>
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
